--- a/QuanLyDiemDanh.xlsx
+++ b/QuanLyDiemDanh.xlsx
@@ -8,12 +8,13 @@
     <sheet state="visible" name="Terms" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="Courses" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="CourseAssignments" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Groups" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="Enrollments" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="Sessions" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="Announcements" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="AttendanceLinks" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="Attendances" sheetId="11" r:id="rId14"/>
+    <sheet state="visible" name="Classes" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Groups" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="Enrollments" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="Weeks" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="Announcements" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="AttendanceLinks" sheetId="11" r:id="rId14"/>
+    <sheet state="visible" name="Attendances" sheetId="12" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="171">
   <si>
     <t>roleID</t>
   </si>
@@ -311,6 +312,87 @@
     <t>teacherID</t>
   </si>
   <si>
+    <t>classID</t>
+  </si>
+  <si>
+    <t>classCode</t>
+  </si>
+  <si>
+    <t>className</t>
+  </si>
+  <si>
+    <t>CLS101</t>
+  </si>
+  <si>
+    <t>B101</t>
+  </si>
+  <si>
+    <t>CLS102</t>
+  </si>
+  <si>
+    <t>B102</t>
+  </si>
+  <si>
+    <t>CLS103</t>
+  </si>
+  <si>
+    <t>B103</t>
+  </si>
+  <si>
+    <t>CLS104</t>
+  </si>
+  <si>
+    <t>B104</t>
+  </si>
+  <si>
+    <t>CLS105</t>
+  </si>
+  <si>
+    <t>B105</t>
+  </si>
+  <si>
+    <t>CLS106</t>
+  </si>
+  <si>
+    <t>B106</t>
+  </si>
+  <si>
+    <t>CLS107</t>
+  </si>
+  <si>
+    <t>B107</t>
+  </si>
+  <si>
+    <t>CLS108</t>
+  </si>
+  <si>
+    <t>B108</t>
+  </si>
+  <si>
+    <t>CLS109</t>
+  </si>
+  <si>
+    <t>B109</t>
+  </si>
+  <si>
+    <t>CLS110</t>
+  </si>
+  <si>
+    <t>B110</t>
+  </si>
+  <si>
+    <t>CLS111</t>
+  </si>
+  <si>
+    <t>B111</t>
+  </si>
+  <si>
+    <t>CLS112</t>
+  </si>
+  <si>
+    <t>B112</t>
+  </si>
+  <si>
     <t>groupID</t>
   </si>
   <si>
@@ -410,15 +492,12 @@
     <t>studentID</t>
   </si>
   <si>
-    <t>sessionID</t>
+    <t>weekID</t>
   </si>
   <si>
     <t>weekNumber</t>
   </si>
   <si>
-    <t>sessionDate</t>
-  </si>
-  <si>
     <t>announcementID</t>
   </si>
   <si>
@@ -456,33 +535,6 @@
   </si>
   <si>
     <t>checkedInAt</t>
-  </si>
-  <si>
-    <t>Có mặt</t>
-  </si>
-  <si>
-    <t>2023-09-05 08:00:00.000</t>
-  </si>
-  <si>
-    <t>105.85</t>
-  </si>
-  <si>
-    <t>Vắng mặt</t>
-  </si>
-  <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>2023-09-12 08:05:00.000</t>
-  </si>
-  <si>
-    <t>2023-09-06 08:30:00.000</t>
-  </si>
-  <si>
-    <t>10.76</t>
-  </si>
-  <si>
-    <t>106.66</t>
   </si>
 </sst>
 </file>
@@ -494,7 +546,7 @@
     <numFmt numFmtId="165" formatCode="m.yyyy"/>
     <numFmt numFmtId="166" formatCode="dd.mm"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -517,6 +569,11 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -532,7 +589,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -547,6 +604,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
@@ -589,6 +652,10 @@
 </file>
 
 <file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1871,6 +1938,423 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="16.57"/>
+    <col customWidth="1" min="2" max="2" width="9.86"/>
+    <col customWidth="1" min="3" max="3" width="28.86"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="B24" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="B25" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="B26" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="B27" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="B28" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4">
+        <v>28.0</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35">
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37">
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38">
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39">
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40">
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41">
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42">
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43">
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44">
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45">
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46">
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47">
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48">
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49">
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50">
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51">
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52">
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53">
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54">
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55">
+      <c r="C55" s="1"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
     <col customWidth="1" min="1" max="1" width="6.57"/>
     <col customWidth="1" min="2" max="3" width="9.86"/>
     <col customWidth="1" min="4" max="4" width="8.57"/>
@@ -1879,594 +2363,324 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="D2" s="6">
-        <v>210278.0</v>
-      </c>
-      <c r="E2" s="6">
-        <v>1058519.0</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3">
-      <c r="A3" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>2091654.0</v>
-      </c>
-      <c r="E3" s="6">
-        <v>1066602.0</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4">
-      <c r="A4" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="D4" s="6">
-        <v>210278.0</v>
-      </c>
-      <c r="E4" s="6">
-        <v>1058519.0</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5">
-      <c r="A5" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>2091654.0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1066602.0</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6">
-      <c r="A6" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="D6" s="6">
-        <v>210278.0</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1058519.0</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7">
-      <c r="A7" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>2091654.0</v>
-      </c>
-      <c r="E7" s="6">
-        <v>1066602.0</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8">
-      <c r="A8" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="D8" s="6">
-        <v>210278.0</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1058519.0</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9">
-      <c r="A9" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="C9" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="D9" s="7">
-        <v>2091654.0</v>
-      </c>
-      <c r="E9" s="6">
-        <v>1066602.0</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10">
-      <c r="A10" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="D10" s="6">
-        <v>210278.0</v>
-      </c>
-      <c r="E10" s="6">
-        <v>1058519.0</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11">
-      <c r="A11" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="D11" s="7">
-        <v>2091654.0</v>
-      </c>
-      <c r="E11" s="6">
-        <v>1066602.0</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12">
-      <c r="A12" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="D12" s="6">
-        <v>210278.0</v>
-      </c>
-      <c r="E12" s="6">
-        <v>1058519.0</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13">
-      <c r="A13" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="D13" s="7">
-        <v>2091654.0</v>
-      </c>
-      <c r="E13" s="6">
-        <v>1066602.0</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14">
-      <c r="A14" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="D14" s="6">
-        <v>210278.0</v>
-      </c>
-      <c r="E14" s="6">
-        <v>1058519.0</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15">
-      <c r="A15" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="C15" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="D15" s="7">
-        <v>2091654.0</v>
-      </c>
-      <c r="E15" s="6">
-        <v>1066602.0</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16">
-      <c r="A16" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="C16" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="D16" s="6">
-        <v>210278.0</v>
-      </c>
-      <c r="E16" s="6">
-        <v>1058519.0</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17">
-      <c r="A17" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="B17" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="C17" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="D17" s="7">
-        <v>2091654.0</v>
-      </c>
-      <c r="E17" s="6">
-        <v>1066602.0</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18">
-      <c r="A18" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="B18" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="C18" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="D18" s="6">
-        <v>210278.0</v>
-      </c>
-      <c r="E18" s="6">
-        <v>1058519.0</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19">
-      <c r="A19" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="B19" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="C19" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2091654.0</v>
-      </c>
-      <c r="E19" s="6">
-        <v>1066602.0</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="8"/>
     </row>
     <row r="20">
-      <c r="A20" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="B20" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="C20" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="D20" s="6">
-        <v>210278.0</v>
-      </c>
-      <c r="E20" s="6">
-        <v>1058519.0</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21">
-      <c r="A21" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="B21" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="C21" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2091654.0</v>
-      </c>
-      <c r="E21" s="6">
-        <v>1066602.0</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="8"/>
     </row>
     <row r="22">
-      <c r="A22" s="1">
-        <v>21.0</v>
-      </c>
-      <c r="B22" s="1">
-        <v>21.0</v>
-      </c>
-      <c r="C22" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="D22" s="6">
-        <v>210278.0</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1058519.0</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23">
-      <c r="A23" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="B23" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="C23" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="D23" s="7">
-        <v>2091654.0</v>
-      </c>
-      <c r="E23" s="6">
-        <v>1066602.0</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="8"/>
     </row>
     <row r="24">
-      <c r="A24" s="1">
-        <v>23.0</v>
-      </c>
-      <c r="B24" s="1">
-        <v>23.0</v>
-      </c>
-      <c r="C24" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="D24" s="6">
-        <v>210278.0</v>
-      </c>
-      <c r="E24" s="6">
-        <v>1058519.0</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
     </row>
     <row r="25">
-      <c r="A25" s="1">
-        <v>24.0</v>
-      </c>
-      <c r="B25" s="1">
-        <v>24.0</v>
-      </c>
-      <c r="C25" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="D25" s="7">
-        <v>2091654.0</v>
-      </c>
-      <c r="E25" s="6">
-        <v>1066602.0</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="8"/>
     </row>
     <row r="26">
-      <c r="A26" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="B26" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="C26" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="D26" s="6">
-        <v>210278.0</v>
-      </c>
-      <c r="E26" s="6">
-        <v>1058519.0</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
     </row>
     <row r="27">
-      <c r="A27" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="B27" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="C27" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="D27" s="7">
-        <v>2091654.0</v>
-      </c>
-      <c r="E27" s="6">
-        <v>1066602.0</v>
-      </c>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="8"/>
     </row>
     <row r="28">
-      <c r="A28" s="1">
-        <v>27.0</v>
-      </c>
-      <c r="B28" s="1">
-        <v>27.0</v>
-      </c>
-      <c r="C28" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="D28" s="6">
-        <v>210278.0</v>
-      </c>
-      <c r="E28" s="6">
-        <v>1058519.0</v>
-      </c>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
     </row>
     <row r="29">
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
     </row>
     <row r="30">
-      <c r="D30" s="9"/>
-      <c r="E30" s="8"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="10"/>
     </row>
     <row r="31">
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
     </row>
     <row r="32">
-      <c r="D32" s="9"/>
-      <c r="E32" s="8"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="10"/>
     </row>
     <row r="33">
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
     </row>
     <row r="34">
-      <c r="D34" s="9"/>
-      <c r="E34" s="8"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="10"/>
     </row>
     <row r="35">
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
     </row>
     <row r="36">
-      <c r="D36" s="9"/>
-      <c r="E36" s="8"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="10"/>
     </row>
     <row r="37">
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
     </row>
     <row r="38">
-      <c r="D38" s="9"/>
-      <c r="E38" s="8"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="10"/>
     </row>
     <row r="39">
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
     </row>
     <row r="40">
-      <c r="D40" s="9"/>
-      <c r="E40" s="8"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="10"/>
     </row>
     <row r="41">
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
     </row>
     <row r="42">
-      <c r="D42" s="9"/>
-      <c r="E42" s="8"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="10"/>
     </row>
     <row r="43">
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
     </row>
     <row r="44">
-      <c r="D44" s="9"/>
-      <c r="E44" s="8"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="10"/>
     </row>
     <row r="45">
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
     </row>
     <row r="46">
-      <c r="D46" s="9"/>
-      <c r="E46" s="8"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="10"/>
     </row>
     <row r="47">
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
     </row>
     <row r="48">
-      <c r="D48" s="9"/>
-      <c r="E48" s="8"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="10"/>
     </row>
     <row r="49">
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
     </row>
     <row r="50">
-      <c r="D50" s="9"/>
-      <c r="E50" s="8"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="10"/>
     </row>
     <row r="51">
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
     </row>
     <row r="52">
-      <c r="D52" s="9"/>
-      <c r="E52" s="8"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="10"/>
     </row>
     <row r="53">
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
     </row>
     <row r="54">
-      <c r="D54" s="9"/>
-      <c r="E54" s="8"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="10"/>
     </row>
     <row r="55">
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2487,558 +2701,278 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F2" s="10">
-        <v>45372.0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>147</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>149</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4">
-      <c r="A4" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F4" s="6">
-        <v>21032.0</v>
-      </c>
-      <c r="G4" s="6">
-        <v>105851.0</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5">
-      <c r="A5" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>153</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
     </row>
     <row r="6">
-      <c r="A6" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F6" s="10">
-        <v>45372.0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>147</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>149</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8">
-      <c r="A8" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F8" s="6">
-        <v>21032.0</v>
-      </c>
-      <c r="G8" s="6">
-        <v>105851.0</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9">
-      <c r="A9" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>153</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
     </row>
     <row r="10">
-      <c r="A10" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F10" s="10">
-        <v>45372.0</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>147</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="11">
-      <c r="A11" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>149</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12">
-      <c r="A12" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F12" s="6">
-        <v>21032.0</v>
-      </c>
-      <c r="G12" s="6">
-        <v>105851.0</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13">
-      <c r="A13" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>153</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
     </row>
     <row r="14">
-      <c r="A14" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F14" s="10">
-        <v>45372.0</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>147</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="1"/>
     </row>
     <row r="15">
-      <c r="A15" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>149</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16">
-      <c r="A16" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F16" s="6">
-        <v>21032.0</v>
-      </c>
-      <c r="G16" s="6">
-        <v>105851.0</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17">
-      <c r="A17" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="B17" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="C17" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>153</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
     </row>
     <row r="18">
-      <c r="A18" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="B18" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F18" s="10">
-        <v>45372.0</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>147</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="1"/>
     </row>
     <row r="19">
-      <c r="A19" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="B19" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>149</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20">
-      <c r="A20" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="B20" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F20" s="6">
-        <v>21032.0</v>
-      </c>
-      <c r="G20" s="6">
-        <v>105851.0</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21">
-      <c r="A21" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="B21" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C21" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>153</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
     </row>
     <row r="22">
       <c r="D22" s="1"/>
-      <c r="F22" s="12"/>
+      <c r="F22" s="14"/>
     </row>
     <row r="23">
       <c r="D23" s="1"/>
     </row>
     <row r="24">
       <c r="D24" s="1"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
     </row>
     <row r="25">
       <c r="D25" s="1"/>
     </row>
     <row r="26">
       <c r="D26" s="1"/>
-      <c r="F26" s="12"/>
+      <c r="F26" s="14"/>
     </row>
     <row r="27">
       <c r="D27" s="1"/>
     </row>
     <row r="28">
       <c r="D28" s="1"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
     </row>
     <row r="29">
       <c r="D29" s="1"/>
     </row>
     <row r="30">
       <c r="D30" s="1"/>
-      <c r="F30" s="12"/>
+      <c r="F30" s="14"/>
     </row>
     <row r="31">
       <c r="D31" s="1"/>
     </row>
     <row r="32">
       <c r="D32" s="1"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
     </row>
     <row r="33">
       <c r="D33" s="1"/>
     </row>
     <row r="34">
       <c r="D34" s="1"/>
-      <c r="F34" s="12"/>
+      <c r="F34" s="14"/>
     </row>
     <row r="35">
       <c r="D35" s="1"/>
     </row>
     <row r="36">
       <c r="D36" s="1"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
     </row>
     <row r="37">
       <c r="D37" s="1"/>
     </row>
     <row r="38">
       <c r="D38" s="1"/>
-      <c r="F38" s="12"/>
+      <c r="F38" s="14"/>
     </row>
     <row r="39">
       <c r="D39" s="1"/>
     </row>
     <row r="40">
       <c r="D40" s="1"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
     </row>
     <row r="41">
       <c r="D41" s="1"/>
@@ -3860,25 +3794,186 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="26" width="12.86"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>98</v>
+      <c r="C1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>99</v>
+        <v>125</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="2">
@@ -3888,14 +3983,17 @@
       <c r="B2" s="1">
         <v>1.0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>100</v>
+      <c r="C2" s="1">
+        <v>1.0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>102</v>
+        <v>128</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="3">
@@ -3905,14 +4003,17 @@
       <c r="B3" s="1">
         <v>1.0</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>103</v>
+      <c r="C3" s="1">
+        <v>1.0</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>105</v>
+        <v>131</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="4">
@@ -3922,14 +4023,17 @@
       <c r="B4" s="1">
         <v>2.0</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>100</v>
+      <c r="C4" s="1">
+        <v>2.0</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>107</v>
+        <v>133</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="5">
@@ -3939,14 +4043,17 @@
       <c r="B5" s="1">
         <v>3.0</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>108</v>
+      <c r="C5" s="1">
+        <v>3.0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>110</v>
+        <v>136</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="6">
@@ -3956,14 +4063,17 @@
       <c r="B6" s="1">
         <v>3.0</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>111</v>
+      <c r="C6" s="1">
+        <v>3.0</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>112</v>
+        <v>128</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="7">
@@ -3973,14 +4083,17 @@
       <c r="B7" s="1">
         <v>4.0</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>113</v>
+      <c r="C7" s="1">
+        <v>4.0</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>114</v>
+        <v>131</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="8">
@@ -3990,14 +4103,17 @@
       <c r="B8" s="1">
         <v>5.0</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>100</v>
+      <c r="C8" s="1">
+        <v>5.0</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>115</v>
+        <v>133</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="9">
@@ -4007,14 +4123,17 @@
       <c r="B9" s="1">
         <v>5.0</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>103</v>
+      <c r="C9" s="1">
+        <v>5.0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>116</v>
+        <v>136</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="10">
@@ -4024,14 +4143,17 @@
       <c r="B10" s="1">
         <v>6.0</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>100</v>
+      <c r="C10" s="1">
+        <v>6.0</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>117</v>
+        <v>128</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="11">
@@ -4041,14 +4163,17 @@
       <c r="B11" s="1">
         <v>7.0</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>108</v>
+      <c r="C11" s="1">
+        <v>7.0</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>118</v>
+        <v>131</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="12">
@@ -4058,14 +4183,17 @@
       <c r="B12" s="1">
         <v>7.0</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>111</v>
+      <c r="C12" s="1">
+        <v>7.0</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>119</v>
+        <v>133</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="13">
@@ -4075,14 +4203,17 @@
       <c r="B13" s="1">
         <v>8.0</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>113</v>
+      <c r="C13" s="1">
+        <v>8.0</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>120</v>
+        <v>136</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="14">
@@ -4092,14 +4223,17 @@
       <c r="B14" s="1">
         <v>9.0</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>100</v>
+      <c r="C14" s="1">
+        <v>9.0</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>121</v>
+        <v>128</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="15">
@@ -4109,14 +4243,17 @@
       <c r="B15" s="1">
         <v>9.0</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>103</v>
+      <c r="C15" s="1">
+        <v>9.0</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>122</v>
+        <v>131</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="16">
@@ -4126,14 +4263,17 @@
       <c r="B16" s="1">
         <v>10.0</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>100</v>
+      <c r="C16" s="1">
+        <v>10.0</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>123</v>
+        <v>133</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="17">
@@ -4143,14 +4283,17 @@
       <c r="B17" s="1">
         <v>11.0</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>108</v>
+      <c r="C17" s="1">
+        <v>11.0</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>124</v>
+        <v>136</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="18">
@@ -4160,14 +4303,17 @@
       <c r="B18" s="1">
         <v>11.0</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>111</v>
+      <c r="C18" s="1">
+        <v>11.0</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="19">
@@ -4177,14 +4323,17 @@
       <c r="B19" s="1">
         <v>12.0</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>113</v>
+      <c r="C19" s="1">
+        <v>12.0</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>126</v>
+        <v>131</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -4192,7 +4341,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4209,13 +4358,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2">
@@ -4426,500 +4575,6 @@
       <c r="C20" s="1">
         <v>13.0</v>
       </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="9.86"/>
-    <col customWidth="1" min="2" max="2" width="9.14"/>
-    <col customWidth="1" min="3" max="3" width="13.29"/>
-    <col customWidth="1" min="4" max="4" width="11.86"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>45174.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>45181.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>45175.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>45327.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>45328.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>45174.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>45181.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>45175.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D10" s="3">
-        <v>45327.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D11" s="3">
-        <v>45328.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D12" s="3">
-        <v>45174.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D13" s="3">
-        <v>45181.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D14" s="3">
-        <v>45175.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D15" s="3">
-        <v>45327.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D16" s="3">
-        <v>45328.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C17" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D17" s="3">
-        <v>45188.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="B18" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D18" s="3">
-        <v>45182.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="B19" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D19" s="3">
-        <v>45334.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="B20" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D20" s="3">
-        <v>45335.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="B21" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="C21" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D21" s="3">
-        <v>45195.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1">
-        <v>21.0</v>
-      </c>
-      <c r="B22" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="C22" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D22" s="3">
-        <v>45182.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="B23" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C23" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D23" s="3">
-        <v>45334.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1">
-        <v>23.0</v>
-      </c>
-      <c r="B24" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="C24" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D24" s="3">
-        <v>45335.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1">
-        <v>24.0</v>
-      </c>
-      <c r="B25" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C25" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D25" s="3">
-        <v>45195.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="B26" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C26" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D26" s="3">
-        <v>45182.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="B27" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="C27" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D27" s="3">
-        <v>45334.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1">
-        <v>27.0</v>
-      </c>
-      <c r="B28" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="C28" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D28" s="3">
-        <v>45335.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30">
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31">
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32">
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33">
-      <c r="D33" s="5"/>
-    </row>
-    <row r="34">
-      <c r="D34" s="5"/>
-    </row>
-    <row r="35">
-      <c r="D35" s="5"/>
-    </row>
-    <row r="36">
-      <c r="D36" s="5"/>
-    </row>
-    <row r="37">
-      <c r="D37" s="5"/>
-    </row>
-    <row r="38">
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39">
-      <c r="D39" s="5"/>
-    </row>
-    <row r="40">
-      <c r="D40" s="5"/>
-    </row>
-    <row r="41">
-      <c r="D41" s="5"/>
-    </row>
-    <row r="42">
-      <c r="D42" s="5"/>
-    </row>
-    <row r="43">
-      <c r="D43" s="5"/>
-    </row>
-    <row r="44">
-      <c r="D44" s="5"/>
-    </row>
-    <row r="45">
-      <c r="D45" s="5"/>
-    </row>
-    <row r="46">
-      <c r="D46" s="5"/>
-    </row>
-    <row r="47">
-      <c r="D47" s="5"/>
-    </row>
-    <row r="48">
-      <c r="D48" s="5"/>
-    </row>
-    <row r="49">
-      <c r="D49" s="5"/>
-    </row>
-    <row r="50">
-      <c r="D50" s="5"/>
-    </row>
-    <row r="51">
-      <c r="D51" s="5"/>
-    </row>
-    <row r="52">
-      <c r="D52" s="5"/>
-    </row>
-    <row r="53">
-      <c r="D53" s="5"/>
-    </row>
-    <row r="54">
-      <c r="D54" s="5"/>
-    </row>
-    <row r="55">
-      <c r="D55" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4936,20 +4591,28 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.57"/>
-    <col customWidth="1" min="2" max="2" width="9.86"/>
-    <col customWidth="1" min="3" max="3" width="28.86"/>
+    <col customWidth="1" min="1" max="1" width="8.0"/>
+    <col customWidth="1" min="2" max="2" width="9.14"/>
+    <col customWidth="1" min="3" max="3" width="13.29"/>
+    <col customWidth="1" min="4" max="4" width="11.86"/>
+    <col customWidth="1" min="5" max="5" width="10.86"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>157</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2">
@@ -4959,8 +4622,14 @@
       <c r="B2" s="1">
         <v>1.0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>134</v>
+      <c r="C2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>45170.0</v>
+      </c>
+      <c r="E2" s="7">
+        <v>45176.0</v>
       </c>
     </row>
     <row r="3">
@@ -4968,10 +4637,16 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C3" s="1">
         <v>2.0</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>135</v>
+      <c r="D3" s="3">
+        <v>45177.0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>45183.0</v>
       </c>
     </row>
     <row r="4">
@@ -4979,10 +4654,16 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>136</v>
+        <v>2.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>45170.0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>45176.0</v>
       </c>
     </row>
     <row r="5">
@@ -4990,10 +4671,16 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>134</v>
+        <v>3.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>45329.0</v>
       </c>
     </row>
     <row r="6">
@@ -5001,10 +4688,16 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>134</v>
+        <v>4.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="E6" s="7">
+        <v>45329.0</v>
       </c>
     </row>
     <row r="7">
@@ -5012,10 +4705,16 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>135</v>
+        <v>5.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>45170.0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>45176.0</v>
       </c>
     </row>
     <row r="8">
@@ -5023,10 +4722,16 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>136</v>
+        <v>5.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>45177.0</v>
+      </c>
+      <c r="E8" s="7">
+        <v>45183.0</v>
       </c>
     </row>
     <row r="9">
@@ -5034,10 +4739,16 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>134</v>
+        <v>6.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>45170.0</v>
+      </c>
+      <c r="E9" s="7">
+        <v>45176.0</v>
       </c>
     </row>
     <row r="10">
@@ -5045,10 +4756,16 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>134</v>
+        <v>7.0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="E10" s="7">
+        <v>45329.0</v>
       </c>
     </row>
     <row r="11">
@@ -5056,10 +4773,16 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>135</v>
+        <v>8.0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="E11" s="7">
+        <v>45329.0</v>
       </c>
     </row>
     <row r="12">
@@ -5067,10 +4790,16 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>136</v>
+        <v>9.0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>45170.0</v>
+      </c>
+      <c r="E12" s="7">
+        <v>45176.0</v>
       </c>
     </row>
     <row r="13">
@@ -5078,10 +4807,16 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>134</v>
+        <v>9.0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>45177.0</v>
+      </c>
+      <c r="E13" s="7">
+        <v>45183.0</v>
       </c>
     </row>
     <row r="14">
@@ -5089,10 +4824,16 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>137</v>
+        <v>10.0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>45170.0</v>
+      </c>
+      <c r="E14" s="7">
+        <v>45176.0</v>
       </c>
     </row>
     <row r="15">
@@ -5100,10 +4841,16 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>135</v>
+        <v>11.0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="E15" s="7">
+        <v>45329.0</v>
       </c>
     </row>
     <row r="16">
@@ -5111,10 +4858,16 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>136</v>
+        <v>12.0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="E16" s="7">
+        <v>45329.0</v>
       </c>
     </row>
     <row r="17">
@@ -5122,10 +4875,16 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>137</v>
+        <v>1.0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>45184.0</v>
+      </c>
+      <c r="E17" s="7">
+        <v>45190.0</v>
       </c>
     </row>
     <row r="18">
@@ -5133,10 +4892,16 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>137</v>
+        <v>2.0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>45177.0</v>
+      </c>
+      <c r="E18" s="7">
+        <v>45183.0</v>
       </c>
     </row>
     <row r="19">
@@ -5144,10 +4909,16 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>135</v>
+        <v>3.0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>45330.0</v>
+      </c>
+      <c r="E19" s="7">
+        <v>45336.0</v>
       </c>
     </row>
     <row r="20">
@@ -5155,10 +4926,16 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>136</v>
+        <v>4.0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>45330.0</v>
+      </c>
+      <c r="E20" s="7">
+        <v>45336.0</v>
       </c>
     </row>
     <row r="21">
@@ -5166,10 +4943,16 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>137</v>
+        <v>5.0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>45184.0</v>
+      </c>
+      <c r="E21" s="7">
+        <v>45190.0</v>
       </c>
     </row>
     <row r="22">
@@ -5177,10 +4960,16 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="1">
-        <v>21.0</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>138</v>
+        <v>6.0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D22" s="3">
+        <v>45177.0</v>
+      </c>
+      <c r="E22" s="7">
+        <v>45183.0</v>
       </c>
     </row>
     <row r="23">
@@ -5188,10 +4977,16 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>135</v>
+        <v>7.0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>45330.0</v>
+      </c>
+      <c r="E23" s="7">
+        <v>45336.0</v>
       </c>
     </row>
     <row r="24">
@@ -5199,10 +4994,16 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="1">
-        <v>23.0</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>136</v>
+        <v>8.0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>45330.0</v>
+      </c>
+      <c r="E24" s="7">
+        <v>45336.0</v>
       </c>
     </row>
     <row r="25">
@@ -5210,10 +5011,16 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="1">
-        <v>24.0</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>138</v>
+        <v>9.0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>45184.0</v>
+      </c>
+      <c r="E25" s="7">
+        <v>45190.0</v>
       </c>
     </row>
     <row r="26">
@@ -5221,10 +5028,16 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>138</v>
+        <v>10.0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D26" s="3">
+        <v>45177.0</v>
+      </c>
+      <c r="E26" s="7">
+        <v>45183.0</v>
       </c>
     </row>
     <row r="27">
@@ -5232,10 +5045,16 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>135</v>
+        <v>11.0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>45330.0</v>
+      </c>
+      <c r="E27" s="7">
+        <v>45336.0</v>
       </c>
     </row>
     <row r="28">
@@ -5243,100 +5062,98 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="1">
-        <v>27.0</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>136</v>
+        <v>12.0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D28" s="3">
+        <v>45330.0</v>
+      </c>
+      <c r="E28" s="7">
+        <v>45336.0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4">
-        <v>28.0</v>
-      </c>
-      <c r="B29" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>135</v>
-      </c>
+      <c r="D29" s="7"/>
     </row>
     <row r="30">
-      <c r="C30" s="1"/>
+      <c r="D30" s="7"/>
     </row>
     <row r="31">
-      <c r="C31" s="1"/>
+      <c r="D31" s="7"/>
     </row>
     <row r="32">
-      <c r="C32" s="1"/>
+      <c r="D32" s="7"/>
     </row>
     <row r="33">
-      <c r="C33" s="1"/>
+      <c r="D33" s="7"/>
     </row>
     <row r="34">
-      <c r="C34" s="1"/>
+      <c r="D34" s="7"/>
     </row>
     <row r="35">
-      <c r="C35" s="1"/>
+      <c r="D35" s="7"/>
     </row>
     <row r="36">
-      <c r="C36" s="1"/>
+      <c r="D36" s="7"/>
     </row>
     <row r="37">
-      <c r="C37" s="1"/>
+      <c r="D37" s="7"/>
     </row>
     <row r="38">
-      <c r="C38" s="1"/>
+      <c r="D38" s="7"/>
     </row>
     <row r="39">
-      <c r="C39" s="1"/>
+      <c r="D39" s="7"/>
     </row>
     <row r="40">
-      <c r="C40" s="1"/>
+      <c r="D40" s="7"/>
     </row>
     <row r="41">
-      <c r="C41" s="1"/>
+      <c r="D41" s="7"/>
     </row>
     <row r="42">
-      <c r="C42" s="1"/>
+      <c r="D42" s="7"/>
     </row>
     <row r="43">
-      <c r="C43" s="1"/>
+      <c r="D43" s="7"/>
     </row>
     <row r="44">
-      <c r="C44" s="1"/>
+      <c r="D44" s="7"/>
     </row>
     <row r="45">
-      <c r="C45" s="1"/>
+      <c r="D45" s="7"/>
     </row>
     <row r="46">
-      <c r="C46" s="1"/>
+      <c r="D46" s="7"/>
     </row>
     <row r="47">
-      <c r="C47" s="1"/>
+      <c r="D47" s="7"/>
     </row>
     <row r="48">
-      <c r="C48" s="1"/>
+      <c r="D48" s="7"/>
     </row>
     <row r="49">
-      <c r="C49" s="1"/>
+      <c r="D49" s="7"/>
     </row>
     <row r="50">
-      <c r="C50" s="1"/>
+      <c r="D50" s="7"/>
     </row>
     <row r="51">
-      <c r="C51" s="1"/>
+      <c r="D51" s="7"/>
     </row>
     <row r="52">
-      <c r="C52" s="1"/>
+      <c r="D52" s="7"/>
     </row>
     <row r="53">
-      <c r="C53" s="1"/>
+      <c r="D53" s="7"/>
     </row>
     <row r="54">
-      <c r="C54" s="1"/>
+      <c r="D54" s="7"/>
     </row>
     <row r="55">
-      <c r="C55" s="1"/>
+      <c r="D55" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/QuanLyDiemDanh.xlsx
+++ b/QuanLyDiemDanh.xlsx
@@ -13,8 +13,7 @@
     <sheet state="visible" name="Enrollments" sheetId="8" r:id="rId11"/>
     <sheet state="visible" name="Weeks" sheetId="9" r:id="rId12"/>
     <sheet state="visible" name="Announcements" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="AttendanceLinks" sheetId="11" r:id="rId14"/>
-    <sheet state="visible" name="Attendances" sheetId="12" r:id="rId15"/>
+    <sheet state="visible" name="Attendances" sheetId="11" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="137">
   <si>
     <t>roleID</t>
   </si>
@@ -54,12 +53,6 @@
     <t>fullname</t>
   </si>
   <si>
-    <t>sinhvien1</t>
-  </si>
-  <si>
-    <t>password123</t>
-  </si>
-  <si>
     <t>sinhvien1@example.com</t>
   </si>
   <si>
@@ -174,9 +167,6 @@
     <t>Nguyễn Thị J</t>
   </si>
   <si>
-    <t>giaovien1</t>
-  </si>
-  <si>
     <t>giaovien1@example.com</t>
   </si>
   <si>
@@ -276,34 +266,10 @@
     <t>STAT101</t>
   </si>
   <si>
-    <t>Lập trình C++</t>
-  </si>
-  <si>
-    <t>CPP101</t>
-  </si>
-  <si>
-    <t>Khoa học máy tính</t>
-  </si>
-  <si>
-    <t>CS101</t>
-  </si>
-  <si>
-    <t>Kỹ thuật phần mềm</t>
-  </si>
-  <si>
-    <t>SE101</t>
-  </si>
-  <si>
-    <t>Mạng máy tính</t>
-  </si>
-  <si>
-    <t>NET101</t>
-  </si>
-  <si>
-    <t>An toàn thông tin</t>
-  </si>
-  <si>
-    <t>SEC101</t>
+    <t>Kinh tế học</t>
+  </si>
+  <si>
+    <t>ECON101</t>
   </si>
   <si>
     <t>assignmentID</t>
@@ -321,76 +287,49 @@
     <t>className</t>
   </si>
   <si>
-    <t>CLS101</t>
-  </si>
-  <si>
-    <t>B101</t>
-  </si>
-  <si>
-    <t>CLS102</t>
-  </si>
-  <si>
-    <t>B102</t>
-  </si>
-  <si>
-    <t>CLS103</t>
-  </si>
-  <si>
-    <t>B103</t>
-  </si>
-  <si>
-    <t>CLS104</t>
-  </si>
-  <si>
-    <t>B104</t>
-  </si>
-  <si>
-    <t>CLS105</t>
-  </si>
-  <si>
-    <t>B105</t>
-  </si>
-  <si>
-    <t>CLS106</t>
-  </si>
-  <si>
-    <t>B106</t>
-  </si>
-  <si>
-    <t>CLS107</t>
-  </si>
-  <si>
-    <t>B107</t>
-  </si>
-  <si>
-    <t>CLS108</t>
-  </si>
-  <si>
-    <t>B108</t>
-  </si>
-  <si>
-    <t>CLS109</t>
-  </si>
-  <si>
-    <t>B109</t>
-  </si>
-  <si>
-    <t>CLS110</t>
-  </si>
-  <si>
-    <t>B110</t>
-  </si>
-  <si>
-    <t>CLS111</t>
-  </si>
-  <si>
-    <t>B111</t>
-  </si>
-  <si>
-    <t>CLS112</t>
-  </si>
-  <si>
-    <t>B112</t>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>CS01</t>
+  </si>
+  <si>
+    <t>Lớp 01</t>
+  </si>
+  <si>
+    <t>10.7347913084129</t>
+  </si>
+  <si>
+    <t>106.70148031301</t>
+  </si>
+  <si>
+    <t>CS02</t>
+  </si>
+  <si>
+    <t>Lớp 02</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>CS03</t>
+  </si>
+  <si>
+    <t>Lớp 03</t>
+  </si>
+  <si>
+    <t>CS04</t>
+  </si>
+  <si>
+    <t>Lớp 04</t>
+  </si>
+  <si>
+    <t>CS05</t>
+  </si>
+  <si>
+    <t>Lớp 05</t>
   </si>
   <si>
     <t>groupID</t>
@@ -402,88 +341,28 @@
     <t>sessionTime</t>
   </si>
   <si>
-    <t>classRoom</t>
-  </si>
-  <si>
     <t>Nhóm 1</t>
   </si>
   <si>
-    <t>08:00-09:30</t>
-  </si>
-  <si>
-    <t>Phòng 101</t>
+    <t>09:00-11:00</t>
+  </si>
+  <si>
+    <t>11:00-13:00</t>
+  </si>
+  <si>
+    <t>13:00-15:00</t>
+  </si>
+  <si>
+    <t>15:00-17:00</t>
+  </si>
+  <si>
+    <t>17:00-19:00</t>
   </si>
   <si>
     <t>Nhóm 2</t>
   </si>
   <si>
-    <t>10:00-11:30</t>
-  </si>
-  <si>
-    <t>Phòng 102</t>
-  </si>
-  <si>
-    <t>13:00-14:30</t>
-  </si>
-  <si>
-    <t>Phòng 201</t>
-  </si>
-  <si>
-    <t>Nhóm A</t>
-  </si>
-  <si>
-    <t>15:00-16:30</t>
-  </si>
-  <si>
-    <t>Phòng 202</t>
-  </si>
-  <si>
-    <t>Nhóm B</t>
-  </si>
-  <si>
-    <t>Phòng 301</t>
-  </si>
-  <si>
-    <t>Nhóm Alpha</t>
-  </si>
-  <si>
-    <t>Phòng 302</t>
-  </si>
-  <si>
-    <t>Phòng 401</t>
-  </si>
-  <si>
-    <t>Phòng 402</t>
-  </si>
-  <si>
-    <t>Phòng 501</t>
-  </si>
-  <si>
-    <t>Phòng 502</t>
-  </si>
-  <si>
-    <t>Phòng 601</t>
-  </si>
-  <si>
-    <t>Phòng 602</t>
-  </si>
-  <si>
-    <t>Phòng 701</t>
-  </si>
-  <si>
-    <t>Phòng 702</t>
-  </si>
-  <si>
-    <t>Phòng 801</t>
-  </si>
-  <si>
-    <t>Phòng 802</t>
-  </si>
-  <si>
-    <t>Phòng 901</t>
-  </si>
-  <si>
-    <t>Phòng 902</t>
+    <t>19:00-21:00</t>
   </si>
   <si>
     <t>enrollmentID</t>
@@ -498,34 +377,37 @@
     <t>weekNumber</t>
   </si>
   <si>
+    <t>isAttendanceLinkCreated</t>
+  </si>
+  <si>
     <t>announcementID</t>
   </si>
   <si>
     <t>content</t>
   </si>
   <si>
-    <t>Bài tập về nhà tuần 1</t>
-  </si>
-  <si>
-    <t>Ôn tập cho bài kiểm tra giữa kỳ</t>
-  </si>
-  <si>
-    <t>Chuẩn bị bài thuyết trình</t>
-  </si>
-  <si>
-    <t>Bài tập về nhà tuần 2</t>
-  </si>
-  <si>
-    <t>Bài tập về nhà tuần 3</t>
-  </si>
-  <si>
-    <t>linkID</t>
-  </si>
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>longitude</t>
+    <t>Buổi học đầu tiên của khóa học Toán Cao Cấp sẽ diễn ra vào ngày 2023-09-05.</t>
+  </si>
+  <si>
+    <t>Buổi học tiếp theo sẽ diễn ra vào ngày 2023-09-12.</t>
+  </si>
+  <si>
+    <t>Đừng quên chuẩn bị bài tập cho buổi học ngày 2023-09-18.</t>
+  </si>
+  <si>
+    <t>Đối với khóa học Lập trình Java, buổi học đầu tiên sẽ diễn ra vào ngày 2024-02-01.</t>
+  </si>
+  <si>
+    <t>Chúng ta sẽ học về cấu trúc dữ liệu trong tuần này.</t>
+  </si>
+  <si>
+    <t>Thông báo quan trọng về khóa học Cơ sở dữ liệu.</t>
+  </si>
+  <si>
+    <t>Lịch thi kỳ giữa học kỳ cho khóa học Giải tích đã được công bố.</t>
+  </si>
+  <si>
+    <t>Buổi học bổ sung cho khóa học Hóa học vào cuối tuần này.</t>
   </si>
   <si>
     <t>attendanceID</t>
@@ -535,16 +417,30 @@
   </si>
   <si>
     <t>checkedInAt</t>
+  </si>
+  <si>
+    <t>Có mặt</t>
+  </si>
+  <si>
+    <t>2024-10-09 13:19:09.707</t>
+  </si>
+  <si>
+    <t>105.8041</t>
+  </si>
+  <si>
+    <t>Vắng mặt</t>
+  </si>
+  <si>
+    <t>NULL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="m.yyyy"/>
-    <numFmt numFmtId="166" formatCode="dd.mm"/>
+    <numFmt numFmtId="165" formatCode="dd.mm"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -589,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -609,6 +505,18 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -617,22 +525,19 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -652,10 +557,6 @@
 </file>
 
 <file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1939,19 +1840,19 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="16.57"/>
-    <col customWidth="1" min="2" max="2" width="9.86"/>
-    <col customWidth="1" min="3" max="3" width="28.86"/>
+    <col customWidth="1" min="2" max="2" width="8.0"/>
+    <col customWidth="1" min="3" max="3" width="74.14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
@@ -1962,7 +1863,7 @@
         <v>1.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3">
@@ -1973,7 +1874,7 @@
         <v>2.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4">
@@ -1984,7 +1885,7 @@
         <v>3.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5">
@@ -1995,7 +1896,7 @@
         <v>4.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6">
@@ -2006,7 +1907,7 @@
         <v>5.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7">
@@ -2017,7 +1918,7 @@
         <v>6.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
@@ -2028,7 +1929,7 @@
         <v>7.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9">
@@ -2039,228 +1940,106 @@
         <v>8.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>160</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11">
-      <c r="A11" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>161</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12">
-      <c r="A12" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>162</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>160</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
     </row>
     <row r="14">
-      <c r="A14" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
     </row>
     <row r="15">
-      <c r="A15" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>161</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
     </row>
     <row r="16">
-      <c r="A16" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>162</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
     </row>
     <row r="17">
-      <c r="A17" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="B17" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
     </row>
     <row r="18">
-      <c r="A18" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="B18" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
     </row>
     <row r="19">
-      <c r="A19" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="B19" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>161</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
     </row>
     <row r="20">
-      <c r="A20" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="B20" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>162</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
     </row>
     <row r="21">
-      <c r="A21" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="B21" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
     </row>
     <row r="22">
-      <c r="A22" s="1">
-        <v>21.0</v>
-      </c>
-      <c r="B22" s="1">
-        <v>21.0</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>164</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
     </row>
     <row r="23">
-      <c r="A23" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="B23" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>161</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
     </row>
     <row r="24">
-      <c r="A24" s="1">
-        <v>23.0</v>
-      </c>
-      <c r="B24" s="1">
-        <v>23.0</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>162</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
     </row>
     <row r="25">
-      <c r="A25" s="1">
-        <v>24.0</v>
-      </c>
-      <c r="B25" s="1">
-        <v>24.0</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>164</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
     </row>
     <row r="26">
-      <c r="A26" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="B26" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>164</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
     </row>
     <row r="27">
-      <c r="A27" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="B27" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>161</v>
-      </c>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
     </row>
     <row r="28">
-      <c r="A28" s="1">
-        <v>27.0</v>
-      </c>
-      <c r="B28" s="1">
-        <v>27.0</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>162</v>
-      </c>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
     </row>
     <row r="29">
-      <c r="A29" s="4">
-        <v>28.0</v>
-      </c>
-      <c r="B29" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>161</v>
-      </c>
+      <c r="C29" s="1"/>
     </row>
     <row r="30">
       <c r="C30" s="1"/>
@@ -2355,480 +2134,313 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="6.57"/>
-    <col customWidth="1" min="2" max="3" width="9.86"/>
-    <col customWidth="1" min="4" max="4" width="8.57"/>
-    <col customWidth="1" min="5" max="5" width="10.14"/>
+    <col customWidth="1" min="1" max="1" width="13.14"/>
+    <col customWidth="1" min="2" max="2" width="10.0"/>
+    <col customWidth="1" min="3" max="3" width="8.0"/>
+    <col customWidth="1" min="4" max="4" width="9.29"/>
+    <col customWidth="1" min="5" max="5" width="24.29"/>
+    <col customWidth="1" min="6" max="6" width="8.57"/>
+    <col customWidth="1" min="7" max="7" width="10.14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>167</v>
+        <v>131</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="A2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="12">
+        <v>210285.0</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="8"/>
+      <c r="A3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="12">
+        <v>210285.0</v>
+      </c>
+      <c r="G3" s="13">
+        <v>1058041.0</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="A4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" s="12">
+        <v>210285.0</v>
+      </c>
+      <c r="G4" s="12">
+        <v>1058041.0</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="8"/>
+      <c r="A5" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="A6" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="12">
+        <v>210285.0</v>
+      </c>
+      <c r="G6" s="12">
+        <v>1058041.0</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="8"/>
+      <c r="A7" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="A8" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="12">
+        <v>210285.0</v>
+      </c>
+      <c r="G8" s="12">
+        <v>1058041.0</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="8"/>
+      <c r="A9" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" s="12">
+        <v>210285.0</v>
+      </c>
+      <c r="G9" s="12">
+        <v>1058041.0</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="A10" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="8"/>
+      <c r="A11" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="12">
+        <v>210285.0</v>
+      </c>
+      <c r="G11" s="13">
+        <v>1058041.0</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="A12" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" s="12">
+        <v>210285.0</v>
+      </c>
+      <c r="G12" s="12">
+        <v>1058041.0</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29">
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-    </row>
-    <row r="30">
-      <c r="D30" s="11"/>
-      <c r="E30" s="10"/>
-    </row>
-    <row r="31">
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-    </row>
-    <row r="32">
-      <c r="D32" s="11"/>
-      <c r="E32" s="10"/>
-    </row>
-    <row r="33">
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-    </row>
-    <row r="34">
-      <c r="D34" s="11"/>
-      <c r="E34" s="10"/>
-    </row>
-    <row r="35">
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-    </row>
-    <row r="36">
-      <c r="D36" s="11"/>
-      <c r="E36" s="10"/>
-    </row>
-    <row r="37">
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-    </row>
-    <row r="38">
-      <c r="D38" s="11"/>
-      <c r="E38" s="10"/>
-    </row>
-    <row r="39">
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-    </row>
-    <row r="40">
-      <c r="D40" s="11"/>
-      <c r="E40" s="10"/>
-    </row>
-    <row r="41">
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-    </row>
-    <row r="42">
-      <c r="D42" s="11"/>
-      <c r="E42" s="10"/>
-    </row>
-    <row r="43">
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-    </row>
-    <row r="44">
-      <c r="D44" s="11"/>
-      <c r="E44" s="10"/>
-    </row>
-    <row r="45">
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-    </row>
-    <row r="46">
-      <c r="D46" s="11"/>
-      <c r="E46" s="10"/>
-    </row>
-    <row r="47">
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-    </row>
-    <row r="48">
-      <c r="D48" s="11"/>
-      <c r="E48" s="10"/>
-    </row>
-    <row r="49">
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-    </row>
-    <row r="50">
-      <c r="D50" s="11"/>
-      <c r="E50" s="10"/>
-    </row>
-    <row r="51">
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-    </row>
-    <row r="52">
-      <c r="D52" s="11"/>
-      <c r="E52" s="10"/>
-    </row>
-    <row r="53">
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-    </row>
-    <row r="54">
-      <c r="D54" s="11"/>
-      <c r="E54" s="10"/>
-    </row>
-    <row r="55">
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="13.14"/>
-    <col customWidth="1" min="2" max="2" width="10.0"/>
-    <col customWidth="1" min="3" max="3" width="9.86"/>
-    <col customWidth="1" min="4" max="4" width="9.43"/>
-    <col customWidth="1" min="5" max="5" width="24.29"/>
-    <col customWidth="1" min="6" max="6" width="8.14"/>
-    <col customWidth="1" min="7" max="7" width="9.71"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="A13" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1"/>
@@ -2836,7 +2448,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="12"/>
+      <c r="F14" s="15"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15">
@@ -2846,7 +2458,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="13"/>
+      <c r="G15" s="14"/>
     </row>
     <row r="16">
       <c r="A16" s="1"/>
@@ -2854,8 +2466,8 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
     </row>
     <row r="17">
       <c r="A17" s="1"/>
@@ -2872,7 +2484,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="12"/>
+      <c r="F18" s="15"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19">
@@ -2882,7 +2494,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="13"/>
+      <c r="G19" s="14"/>
     </row>
     <row r="20">
       <c r="A20" s="1"/>
@@ -2890,8 +2502,8 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
     </row>
     <row r="21">
       <c r="A21" s="1"/>
@@ -2904,75 +2516,75 @@
     </row>
     <row r="22">
       <c r="D22" s="1"/>
-      <c r="F22" s="14"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23">
       <c r="D23" s="1"/>
     </row>
     <row r="24">
       <c r="D24" s="1"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
     </row>
     <row r="25">
       <c r="D25" s="1"/>
     </row>
     <row r="26">
       <c r="D26" s="1"/>
-      <c r="F26" s="14"/>
+      <c r="F26" s="16"/>
     </row>
     <row r="27">
       <c r="D27" s="1"/>
     </row>
     <row r="28">
       <c r="D28" s="1"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
     </row>
     <row r="29">
       <c r="D29" s="1"/>
     </row>
     <row r="30">
       <c r="D30" s="1"/>
-      <c r="F30" s="14"/>
+      <c r="F30" s="16"/>
     </row>
     <row r="31">
       <c r="D31" s="1"/>
     </row>
     <row r="32">
       <c r="D32" s="1"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
     </row>
     <row r="33">
       <c r="D33" s="1"/>
     </row>
     <row r="34">
       <c r="D34" s="1"/>
-      <c r="F34" s="14"/>
+      <c r="F34" s="16"/>
     </row>
     <row r="35">
       <c r="D35" s="1"/>
     </row>
     <row r="36">
       <c r="D36" s="1"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
     </row>
     <row r="37">
       <c r="D37" s="1"/>
     </row>
     <row r="38">
       <c r="D38" s="1"/>
-      <c r="F38" s="14"/>
+      <c r="F38" s="16"/>
     </row>
     <row r="39">
       <c r="D39" s="1"/>
     </row>
     <row r="40">
       <c r="D40" s="1"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
     </row>
     <row r="41">
       <c r="D41" s="1"/>
@@ -3024,17 +2636,17 @@
       <c r="A2" s="1">
         <v>1.0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="F2" s="1">
         <v>1.0</v>
@@ -3045,16 +2657,16 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="F3" s="1">
         <v>1.0</v>
@@ -3065,16 +2677,16 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="F4" s="1">
         <v>1.0</v>
@@ -3085,16 +2697,16 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="F5" s="1">
         <v>1.0</v>
@@ -3105,16 +2717,16 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="F6" s="1">
         <v>1.0</v>
@@ -3125,16 +2737,16 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="F7" s="1">
         <v>1.0</v>
@@ -3145,16 +2757,16 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="F8" s="1">
         <v>1.0</v>
@@ -3165,16 +2777,16 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="F9" s="1">
         <v>1.0</v>
@@ -3185,16 +2797,16 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F10" s="1">
         <v>1.0</v>
@@ -3205,16 +2817,16 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="F11" s="1">
         <v>1.0</v>
@@ -3224,17 +2836,17 @@
       <c r="A12" s="1">
         <v>11.0</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="F12" s="1">
         <v>2.0</v>
@@ -3245,16 +2857,16 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="F13" s="1">
         <v>2.0</v>
@@ -3265,16 +2877,16 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="F14" s="1">
         <v>2.0</v>
@@ -3285,16 +2897,16 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="F15" s="1">
         <v>2.0</v>
@@ -3305,16 +2917,16 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="F16" s="1">
         <v>3.0</v>
@@ -3342,16 +2954,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2">
@@ -3359,7 +2971,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C2" s="3">
         <v>45170.0</v>
@@ -3373,7 +2985,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C3" s="3">
         <v>45323.0</v>
@@ -3387,7 +2999,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C4" s="3">
         <v>45092.0</v>
@@ -3437,16 +3049,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2">
@@ -3454,10 +3066,10 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D2" s="1">
         <v>1.0</v>
@@ -3468,10 +3080,10 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D3" s="1">
         <v>1.0</v>
@@ -3482,10 +3094,10 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D4" s="1">
         <v>2.0</v>
@@ -3496,10 +3108,10 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D5" s="1">
         <v>2.0</v>
@@ -3510,10 +3122,10 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D6" s="1">
         <v>1.0</v>
@@ -3524,10 +3136,10 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D7" s="1">
         <v>1.0</v>
@@ -3538,10 +3150,10 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D8" s="1">
         <v>1.0</v>
@@ -3552,70 +3164,34 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D9" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2.0</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="D10" s="1"/>
     </row>
     <row r="11">
-      <c r="A11" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="1">
-        <v>3.0</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="D11" s="1"/>
     </row>
     <row r="12">
-      <c r="A12" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="1">
-        <v>3.0</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="D12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="1">
-        <v>3.0</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="D13" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -3639,13 +3215,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2">
@@ -3667,7 +3243,7 @@
         <v>2.0</v>
       </c>
       <c r="C3" s="1">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="4">
@@ -3678,7 +3254,7 @@
         <v>3.0</v>
       </c>
       <c r="C4" s="1">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="5">
@@ -3711,7 +3287,7 @@
         <v>6.0</v>
       </c>
       <c r="C7" s="1">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="8">
@@ -3722,7 +3298,7 @@
         <v>7.0</v>
       </c>
       <c r="C8" s="1">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="9">
@@ -3737,48 +3313,24 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>11.0</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11">
-      <c r="A11" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>12.0</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12">
-      <c r="A12" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>13.0</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>14.0</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -3794,149 +3346,150 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="7.0"/>
+    <col customWidth="1" min="2" max="2" width="9.57"/>
+    <col customWidth="1" min="3" max="3" width="10.29"/>
+    <col customWidth="1" min="4" max="4" width="17.57"/>
+    <col customWidth="1" min="5" max="5" width="19.0"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>98</v>
+        <v>87</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="6">
         <v>1.0</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>100</v>
+      <c r="B2" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6">
         <v>2.0</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>102</v>
+      <c r="B3" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6">
         <v>3.0</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>104</v>
+      <c r="B4" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6">
         <v>4.0</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>106</v>
+      <c r="B5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6">
         <v>5.0</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>108</v>
+      <c r="B6" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>110</v>
-      </c>
+      <c r="A7" s="10"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8">
-      <c r="A8" s="6">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>112</v>
-      </c>
+      <c r="A8" s="10"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
     </row>
     <row r="9">
-      <c r="A9" s="6">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>114</v>
-      </c>
+      <c r="A9" s="10"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10">
-      <c r="A10" s="6">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>116</v>
-      </c>
+      <c r="A10" s="10"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
     </row>
     <row r="11">
-      <c r="A11" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>118</v>
-      </c>
+      <c r="A11" s="10"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12">
-      <c r="A12" s="6">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>120</v>
-      </c>
+      <c r="A12" s="10"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13">
-      <c r="A13" s="6">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>122</v>
-      </c>
+      <c r="A13" s="10"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -3958,27 +3511,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="B2" s="1">
         <v>1.0</v>
@@ -3987,354 +3537,180 @@
         <v>1.0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B3" s="1">
         <v>2.0</v>
       </c>
-      <c r="B3" s="1">
-        <v>1.0</v>
-      </c>
       <c r="C3" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B4" s="1">
         <v>3.0</v>
       </c>
-      <c r="B4" s="1">
-        <v>2.0</v>
-      </c>
       <c r="C4" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B5" s="1">
         <v>4.0</v>
       </c>
-      <c r="B5" s="1">
-        <v>3.0</v>
-      </c>
       <c r="C5" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B6" s="1">
         <v>5.0</v>
       </c>
-      <c r="B6" s="1">
-        <v>3.0</v>
-      </c>
       <c r="C6" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B7" s="1">
         <v>6.0</v>
       </c>
-      <c r="B7" s="1">
-        <v>4.0</v>
-      </c>
       <c r="C7" s="1">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B8" s="1">
         <v>7.0</v>
       </c>
-      <c r="B8" s="1">
-        <v>5.0</v>
-      </c>
       <c r="C8" s="1">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B9" s="1">
         <v>8.0</v>
       </c>
-      <c r="B9" s="1">
-        <v>5.0</v>
-      </c>
       <c r="C9" s="1">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>144</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11">
-      <c r="A11" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>145</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12">
-      <c r="A12" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>146</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>147</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
     </row>
     <row r="14">
-      <c r="A14" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>148</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
     </row>
     <row r="15">
-      <c r="A15" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C15" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>149</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
     </row>
     <row r="16">
-      <c r="A16" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C16" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>150</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
     </row>
     <row r="17">
-      <c r="A17" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="B17" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="C17" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
     </row>
     <row r="18">
-      <c r="A18" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="B18" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="C18" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>152</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
     </row>
     <row r="19">
-      <c r="A19" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="B19" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="C19" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>153</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4358,13 +3734,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2">
@@ -4383,10 +3759,10 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C3" s="1">
         <v>2.0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -4408,7 +3784,7 @@
         <v>2.0</v>
       </c>
       <c r="C5" s="1">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -4416,10 +3792,10 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C6" s="1">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -4430,7 +3806,7 @@
         <v>3.0</v>
       </c>
       <c r="C7" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -4441,7 +3817,7 @@
         <v>4.0</v>
       </c>
       <c r="C8" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="9">
@@ -4449,10 +3825,10 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C9" s="1">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="10">
@@ -4460,10 +3836,10 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C10" s="1">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="11">
@@ -4471,10 +3847,10 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C11" s="1">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
@@ -4482,10 +3858,10 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="C12" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
@@ -4493,10 +3869,10 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C13" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="14">
@@ -4504,10 +3880,10 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="1">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="C14" s="1">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="15">
@@ -4515,66 +3891,36 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="1">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="C15" s="1">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="C16" s="1">
-        <v>11.0</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
     </row>
     <row r="17">
-      <c r="A17" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="B17" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1.0</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
     </row>
     <row r="18">
-      <c r="A18" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="B18" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2.0</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
     </row>
     <row r="19">
-      <c r="A19" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="B19" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C19" s="1">
-        <v>12.0</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
     </row>
     <row r="20">
-      <c r="A20" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="B20" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C20" s="1">
-        <v>13.0</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4596,23 +3942,27 @@
     <col customWidth="1" min="3" max="3" width="13.29"/>
     <col customWidth="1" min="4" max="4" width="11.86"/>
     <col customWidth="1" min="5" max="5" width="10.86"/>
+    <col customWidth="1" min="6" max="6" width="22.29"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="2">
@@ -4626,10 +3976,13 @@
         <v>1.0</v>
       </c>
       <c r="D2" s="3">
-        <v>45170.0</v>
-      </c>
-      <c r="E2" s="7">
-        <v>45176.0</v>
+        <v>45174.0</v>
+      </c>
+      <c r="E2" s="11">
+        <v>45180.0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -4643,10 +3996,13 @@
         <v>2.0</v>
       </c>
       <c r="D3" s="3">
-        <v>45177.0</v>
-      </c>
-      <c r="E3" s="7">
-        <v>45183.0</v>
+        <v>45181.0</v>
+      </c>
+      <c r="E3" s="11">
+        <v>45187.0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -4660,10 +4016,13 @@
         <v>1.0</v>
       </c>
       <c r="D4" s="3">
-        <v>45170.0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>45176.0</v>
+        <v>45174.0</v>
+      </c>
+      <c r="E4" s="11">
+        <v>45180.0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -4679,8 +4038,11 @@
       <c r="D5" s="3">
         <v>45323.0</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="11">
         <v>45329.0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
@@ -4688,16 +4050,19 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C6" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D6" s="3">
-        <v>45323.0</v>
-      </c>
-      <c r="E6" s="7">
-        <v>45329.0</v>
+        <v>45330.0</v>
+      </c>
+      <c r="E6" s="11">
+        <v>45336.0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
@@ -4705,16 +4070,19 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C7" s="1">
         <v>1.0</v>
       </c>
       <c r="D7" s="3">
-        <v>45170.0</v>
-      </c>
-      <c r="E7" s="7">
-        <v>45176.0</v>
+        <v>45337.0</v>
+      </c>
+      <c r="E7" s="11">
+        <v>45343.0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -4725,13 +4093,16 @@
         <v>5.0</v>
       </c>
       <c r="C8" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D8" s="3">
-        <v>45177.0</v>
-      </c>
-      <c r="E8" s="7">
-        <v>45183.0</v>
+        <v>45174.0</v>
+      </c>
+      <c r="E8" s="11">
+        <v>45180.0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
@@ -4745,10 +4116,13 @@
         <v>1.0</v>
       </c>
       <c r="D9" s="3">
-        <v>45170.0</v>
-      </c>
-      <c r="E9" s="7">
-        <v>45176.0</v>
+        <v>45174.0</v>
+      </c>
+      <c r="E9" s="11">
+        <v>45180.0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -4762,10 +4136,13 @@
         <v>1.0</v>
       </c>
       <c r="D10" s="3">
-        <v>45323.0</v>
-      </c>
-      <c r="E10" s="7">
-        <v>45329.0</v>
+        <v>45174.0</v>
+      </c>
+      <c r="E10" s="11">
+        <v>45180.0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -4779,381 +4156,214 @@
         <v>1.0</v>
       </c>
       <c r="D11" s="3">
-        <v>45323.0</v>
-      </c>
-      <c r="E11" s="7">
-        <v>45329.0</v>
+        <v>45174.0</v>
+      </c>
+      <c r="E11" s="11">
+        <v>45180.0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D12" s="3">
-        <v>45170.0</v>
-      </c>
-      <c r="E12" s="7">
-        <v>45176.0</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13">
-      <c r="A13" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D13" s="3">
-        <v>45177.0</v>
-      </c>
-      <c r="E13" s="7">
-        <v>45183.0</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="14">
-      <c r="A14" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D14" s="3">
-        <v>45170.0</v>
-      </c>
-      <c r="E14" s="7">
-        <v>45176.0</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15">
-      <c r="A15" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D15" s="3">
-        <v>45323.0</v>
-      </c>
-      <c r="E15" s="7">
-        <v>45329.0</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16">
-      <c r="A16" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D16" s="3">
-        <v>45323.0</v>
-      </c>
-      <c r="E16" s="7">
-        <v>45329.0</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="11"/>
     </row>
     <row r="17">
-      <c r="A17" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C17" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D17" s="3">
-        <v>45184.0</v>
-      </c>
-      <c r="E17" s="7">
-        <v>45190.0</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="11"/>
     </row>
     <row r="18">
-      <c r="A18" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="B18" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D18" s="3">
-        <v>45177.0</v>
-      </c>
-      <c r="E18" s="7">
-        <v>45183.0</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="11"/>
     </row>
     <row r="19">
-      <c r="A19" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="B19" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D19" s="3">
-        <v>45330.0</v>
-      </c>
-      <c r="E19" s="7">
-        <v>45336.0</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="11"/>
     </row>
     <row r="20">
-      <c r="A20" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="B20" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D20" s="3">
-        <v>45330.0</v>
-      </c>
-      <c r="E20" s="7">
-        <v>45336.0</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="11"/>
     </row>
     <row r="21">
-      <c r="A21" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="B21" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="C21" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D21" s="3">
-        <v>45184.0</v>
-      </c>
-      <c r="E21" s="7">
-        <v>45190.0</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="11"/>
     </row>
     <row r="22">
-      <c r="A22" s="1">
-        <v>21.0</v>
-      </c>
-      <c r="B22" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="C22" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D22" s="3">
-        <v>45177.0</v>
-      </c>
-      <c r="E22" s="7">
-        <v>45183.0</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="11"/>
     </row>
     <row r="23">
-      <c r="A23" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="B23" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C23" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D23" s="3">
-        <v>45330.0</v>
-      </c>
-      <c r="E23" s="7">
-        <v>45336.0</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="11"/>
     </row>
     <row r="24">
-      <c r="A24" s="1">
-        <v>23.0</v>
-      </c>
-      <c r="B24" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="C24" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D24" s="3">
-        <v>45330.0</v>
-      </c>
-      <c r="E24" s="7">
-        <v>45336.0</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="11"/>
     </row>
     <row r="25">
-      <c r="A25" s="1">
-        <v>24.0</v>
-      </c>
-      <c r="B25" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C25" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D25" s="3">
-        <v>45184.0</v>
-      </c>
-      <c r="E25" s="7">
-        <v>45190.0</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="11"/>
     </row>
     <row r="26">
-      <c r="A26" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="B26" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C26" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D26" s="3">
-        <v>45177.0</v>
-      </c>
-      <c r="E26" s="7">
-        <v>45183.0</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="11"/>
     </row>
     <row r="27">
-      <c r="A27" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="B27" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="C27" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D27" s="3">
-        <v>45330.0</v>
-      </c>
-      <c r="E27" s="7">
-        <v>45336.0</v>
-      </c>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="11"/>
     </row>
     <row r="28">
-      <c r="A28" s="1">
-        <v>27.0</v>
-      </c>
-      <c r="B28" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="C28" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D28" s="3">
-        <v>45330.0</v>
-      </c>
-      <c r="E28" s="7">
-        <v>45336.0</v>
-      </c>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="11"/>
     </row>
     <row r="29">
-      <c r="D29" s="7"/>
+      <c r="D29" s="11"/>
     </row>
     <row r="30">
-      <c r="D30" s="7"/>
+      <c r="D30" s="11"/>
     </row>
     <row r="31">
-      <c r="D31" s="7"/>
+      <c r="D31" s="11"/>
     </row>
     <row r="32">
-      <c r="D32" s="7"/>
+      <c r="D32" s="11"/>
     </row>
     <row r="33">
-      <c r="D33" s="7"/>
+      <c r="D33" s="11"/>
     </row>
     <row r="34">
-      <c r="D34" s="7"/>
+      <c r="D34" s="11"/>
     </row>
     <row r="35">
-      <c r="D35" s="7"/>
+      <c r="D35" s="11"/>
     </row>
     <row r="36">
-      <c r="D36" s="7"/>
+      <c r="D36" s="11"/>
     </row>
     <row r="37">
-      <c r="D37" s="7"/>
+      <c r="D37" s="11"/>
     </row>
     <row r="38">
-      <c r="D38" s="7"/>
+      <c r="D38" s="11"/>
     </row>
     <row r="39">
-      <c r="D39" s="7"/>
+      <c r="D39" s="11"/>
     </row>
     <row r="40">
-      <c r="D40" s="7"/>
+      <c r="D40" s="11"/>
     </row>
     <row r="41">
-      <c r="D41" s="7"/>
+      <c r="D41" s="11"/>
     </row>
     <row r="42">
-      <c r="D42" s="7"/>
+      <c r="D42" s="11"/>
     </row>
     <row r="43">
-      <c r="D43" s="7"/>
+      <c r="D43" s="11"/>
     </row>
     <row r="44">
-      <c r="D44" s="7"/>
+      <c r="D44" s="11"/>
     </row>
     <row r="45">
-      <c r="D45" s="7"/>
+      <c r="D45" s="11"/>
     </row>
     <row r="46">
-      <c r="D46" s="7"/>
+      <c r="D46" s="11"/>
     </row>
     <row r="47">
-      <c r="D47" s="7"/>
+      <c r="D47" s="11"/>
     </row>
     <row r="48">
-      <c r="D48" s="7"/>
+      <c r="D48" s="11"/>
     </row>
     <row r="49">
-      <c r="D49" s="7"/>
+      <c r="D49" s="11"/>
     </row>
     <row r="50">
-      <c r="D50" s="7"/>
+      <c r="D50" s="11"/>
     </row>
     <row r="51">
-      <c r="D51" s="7"/>
+      <c r="D51" s="11"/>
     </row>
     <row r="52">
-      <c r="D52" s="7"/>
+      <c r="D52" s="11"/>
     </row>
     <row r="53">
-      <c r="D53" s="7"/>
+      <c r="D53" s="11"/>
     </row>
     <row r="54">
-      <c r="D54" s="7"/>
+      <c r="D54" s="11"/>
     </row>
     <row r="55">
-      <c r="D55" s="7"/>
+      <c r="D55" s="11"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
